--- a/tests/Templates/tLists1_cell_setting.xlsx
+++ b/tests/Templates/tLists1_cell_setting.xlsx
@@ -198,7 +198,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -206,13 +205,11 @@
       <color indexed="16"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -273,7 +270,6 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <u/>
@@ -281,7 +277,6 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -289,7 +284,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -298,14 +292,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
